--- a/mount/node-red/template/template-cn.xlsx
+++ b/mount/node-red/template/template-cn.xlsx
@@ -37,21 +37,11 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>zhuangminghe:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-路径以/作为层级分割，每个层级字符命名支持中文、字母、数字、下划线</t>
+          <t>路径以/作为层级分割，每个层级字符命名支持中文、字母、数字、下划线，并且不能以/开头</t>
         </r>
       </text>
     </comment>
@@ -59,22 +49,11 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>zhuangminghe:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-zhuangminghe:
-输入长度小于63，支持中文、字母、数字、下划线</t>
+          <t>输入长度小于63，支持中文、字母、数字、下划线</t>
         </r>
       </text>
     </comment>
@@ -82,21 +61,11 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>zhuangminghe:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-输入长度小于63，输入仅支持字母、数字、下划线，并以字母开头</t>
+          <t>输入长度小于63，输入仅支持字母、数字、下划线，并以字母开头</t>
         </r>
       </text>
     </comment>
@@ -104,21 +73,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">类型枚举如下：
+</t>
+        </r>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>zhuangminghe:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-int
+          <t>int
 long
 double
 float
@@ -132,12 +101,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">按照不同协议，填不同值，例如：
+</t>
+        </r>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>zhuangminghe:</t>
+          <t>modbus</t>
         </r>
         <r>
           <rPr>
@@ -145,12 +123,44 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-按照不同协议，填不同值，例如：
-modbus：填数组下标 0,1,2,3..
+          <t xml:space="preserve">：填数组下标 0,1,2,3..
 .
-opcua：格式ns=0;s=item1;
-opcda：填写地址：bacnet.device1._Statistics._FailedWrites</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>opcua</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：格式ns=0;s=item1;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>opcda</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：填写地址：bacnet.device1._Statistics._FailedWrites</t>
         </r>
       </text>
     </comment>
@@ -342,12 +352,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1145,7 +1155,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
